--- a/Raw Data/Dataset3.xlsx
+++ b/Raw Data/Dataset3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zdrag\Desktop\Everything\Roulette Data Analysis Project\Raw Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zdrag\Desktop\Roulette Data Analysis Project\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CD1368-4E23-4CBB-8CC4-F91EB5580AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA73A343-A3BA-4B19-B6E7-DA670ED77F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="9">
   <si>
     <t>SN</t>
   </si>
@@ -46,16 +46,30 @@
   </si>
   <si>
     <t>MALE</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SpqsJ79M9QI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,13 +92,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -363,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,7 +392,7 @@
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,8 +405,11 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -402,8 +422,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -416,8 +439,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -430,8 +456,11 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -444,8 +473,11 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -458,8 +490,11 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -472,8 +507,11 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -486,8 +524,11 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -500,8 +541,11 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -514,8 +558,11 @@
       <c r="D10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -528,8 +575,11 @@
       <c r="D11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -542,8 +592,11 @@
       <c r="D12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -556,8 +609,11 @@
       <c r="D13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -570,8 +626,11 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -584,8 +643,11 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -598,8 +660,11 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -612,8 +677,11 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -626,8 +694,11 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -640,8 +711,11 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -654,8 +728,14 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2:E20" r:id="rId1" display="https://www.youtube.com/watch?v=SpqsJ79M9QI" xr:uid="{1F42A2A3-9008-4B27-A19B-FE0D38E346F1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>